--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_172__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_172__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,40 +5873,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>18.31268501281738</c:v>
+                  <c:v>18.31267929077148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.83036041259766</c:v>
+                  <c:v>27.83035278320312</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.88655471801758</c:v>
+                  <c:v>23.88655090332031</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.73432540893555</c:v>
+                  <c:v>14.73433303833008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.13276290893555</c:v>
+                  <c:v>37.13275909423828</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>23.82368659973145</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.35094451904297</c:v>
+                  <c:v>37.35094833374023</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>20.77311515808105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.90207290649414</c:v>
+                  <c:v>19.90207862854004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.93936729431152</c:v>
+                  <c:v>11.93936252593994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.57355880737305</c:v>
+                  <c:v>33.57355117797852</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.615478515625</c:v>
+                  <c:v>26.61548042297363</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>19.75857162475586</c:v>
@@ -5915,13 +5915,13 @@
                   <c:v>25.74964714050293</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.47309875488281</c:v>
+                  <c:v>29.47310066223145</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.74919319152832</c:v>
+                  <c:v>17.74919700622559</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.3441162109375</c:v>
+                  <c:v>23.3441219329834</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>17.62602424621582</c:v>
@@ -5933,31 +5933,31 @@
                   <c:v>25.1398754119873</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.40974807739258</c:v>
+                  <c:v>34.40974426269531</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>24.66195869445801</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.19220924377441</c:v>
+                  <c:v>23.19220352172852</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>38.31657409667969</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10.24503803253174</c:v>
+                  <c:v>10.24504089355469</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>35.39242172241211</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.89339542388916</c:v>
+                  <c:v>6.893399238586426</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>17.25460624694824</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21.3007640838623</c:v>
+                  <c:v>21.30076026916504</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>12.06323432922363</c:v>
@@ -5966,52 +5966,52 @@
                   <c:v>17.5584602355957</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17.32809638977051</c:v>
+                  <c:v>17.32809829711914</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>13.78788375854492</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>21.29537963867188</c:v>
+                  <c:v>21.29538536071777</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>23.78317451477051</c:v>
+                  <c:v>23.78317642211914</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.50778579711914</c:v>
+                  <c:v>26.50778007507324</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.296667098999023</c:v>
+                  <c:v>8.296669960021973</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>26.35075950622559</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.44350004196167</c:v>
+                  <c:v>7.443496227264404</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20.24834823608398</c:v>
+                  <c:v>20.24835014343262</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>25.81073188781738</c:v>
+                  <c:v>25.81073379516602</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>36.15048217773438</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>24.27983093261719</c:v>
+                  <c:v>24.27982902526855</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>24.92342376708984</c:v>
+                  <c:v>24.92342567443848</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>20.2984676361084</c:v>
+                  <c:v>20.29846000671387</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>14.82090187072754</c:v>
+                  <c:v>14.82089710235596</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>23.97350692749023</c:v>
+                  <c:v>23.9735107421875</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>27.23326110839844</c:v>
@@ -6020,55 +6020,55 @@
                   <c:v>20.46933174133301</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>21.70154571533203</c:v>
+                  <c:v>21.70154190063477</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20.21572494506836</c:v>
+                  <c:v>20.21572113037109</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.318363189697266</c:v>
+                  <c:v>8.318367004394531</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>18.38569831848145</c:v>
+                  <c:v>18.38569450378418</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>15.17125701904297</c:v>
+                  <c:v>15.17125034332275</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12.59491539001465</c:v>
+                  <c:v>12.59491062164307</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>31.53387832641602</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>18.7385139465332</c:v>
+                  <c:v>18.73851585388184</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>34.57612991333008</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>13.16287231445312</c:v>
+                  <c:v>13.16287422180176</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>35.39725875854492</c:v>
+                  <c:v>35.39726257324219</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>24.24844551086426</c:v>
+                  <c:v>24.24844360351562</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>28.8083667755127</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>27.3646068572998</c:v>
+                  <c:v>27.36461067199707</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>26.90457725524902</c:v>
+                  <c:v>26.90457916259766</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>13.93418788909912</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>13.28468704223633</c:v>
+                  <c:v>13.28468227386475</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>25.427734375</c:v>
@@ -6077,31 +6077,31 @@
                   <c:v>20.06912231445312</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>23.72382164001465</c:v>
+                  <c:v>23.72382736206055</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>21.74663734436035</c:v>
+                  <c:v>21.74663352966309</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>22.71081924438477</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>19.3695182800293</c:v>
+                  <c:v>19.36952209472656</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>16.42622184753418</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>20.614013671875</c:v>
+                  <c:v>20.6140079498291</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>22.96185874938965</c:v>
+                  <c:v>22.96185493469238</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>29.52316284179688</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>18.25900268554688</c:v>
+                  <c:v>18.25901031494141</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>12.66847801208496</c:v>
@@ -6110,25 +6110,25 @@
                   <c:v>15.02571296691895</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>21.54483413696289</c:v>
+                  <c:v>21.54483795166016</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>19.13997077941895</c:v>
+                  <c:v>19.13996696472168</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>22.2596321105957</c:v>
+                  <c:v>22.2596378326416</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>29.8108959197998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>25.6006908416748</c:v>
+                  <c:v>25.60069274902344</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>12.46345233917236</c:v>
+                  <c:v>12.46345520019531</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>26.41084098815918</c:v>
+                  <c:v>26.41083717346191</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>17.20110130310059</c:v>
@@ -6140,31 +6140,31 @@
                   <c:v>13.17824840545654</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>17.77352142333984</c:v>
+                  <c:v>17.77351951599121</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>24.62843132019043</c:v>
+                  <c:v>24.62843704223633</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>25.74343681335449</c:v>
+                  <c:v>25.74343109130859</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.467004537582397</c:v>
+                  <c:v>2.467003583908081</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>13.37910175323486</c:v>
+                  <c:v>13.3791036605835</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>12.2490816116333</c:v>
+                  <c:v>12.24907970428467</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>29.75261878967285</c:v>
+                  <c:v>29.75261306762695</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>19.71180152893066</c:v>
+                  <c:v>19.71179389953613</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>14.24917697906494</c:v>
+                  <c:v>14.24917507171631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18.31268501281738</v>
+        <v>18.31267929077148</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>27.83036041259766</v>
+        <v>27.83035278320312</v>
       </c>
       <c r="G3">
         <v>78</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.88655471801758</v>
+        <v>23.88655090332031</v>
       </c>
       <c r="G4">
         <v>78</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14.73432540893555</v>
+        <v>14.73433303833008</v>
       </c>
       <c r="G5">
         <v>78</v>
@@ -6987,7 +6987,7 @@
         <v>47.7145</v>
       </c>
       <c r="F6">
-        <v>37.13276290893555</v>
+        <v>37.13275909423828</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>37.35094451904297</v>
+        <v>37.35094833374023</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>19.90207290649414</v>
+        <v>19.90207862854004</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.93936729431152</v>
+        <v>11.93936252593994</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>33.57355880737305</v>
+        <v>33.57355117797852</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>26.615478515625</v>
+        <v>26.61548042297363</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>49.8428</v>
       </c>
       <c r="F16">
-        <v>29.47309875488281</v>
+        <v>29.47310066223145</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>46.0307</v>
       </c>
       <c r="F17">
-        <v>17.74919319152832</v>
+        <v>17.74919700622559</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.3441162109375</v>
+        <v>23.3441219329834</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>34.40974807739258</v>
+        <v>34.40974426269531</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.19220924377441</v>
+        <v>23.19220352172852</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>10.24503803253174</v>
+        <v>10.24504089355469</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>6.89339542388916</v>
+        <v>6.893399238586426</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>58.4079</v>
       </c>
       <c r="F30">
-        <v>21.3007640838623</v>
+        <v>21.30076026916504</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>17.32809638977051</v>
+        <v>17.32809829711914</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>21.29537963867188</v>
+        <v>21.29538536071777</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>51.0217</v>
       </c>
       <c r="F36">
-        <v>23.78317451477051</v>
+        <v>23.78317642211914</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>26.50778579711914</v>
+        <v>26.50778007507324</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>8.296667098999023</v>
+        <v>8.296669960021973</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>7.44350004196167</v>
+        <v>7.443496227264404</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>51.9776</v>
       </c>
       <c r="F41">
-        <v>20.24834823608398</v>
+        <v>20.24835014343262</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>25.81073188781738</v>
+        <v>25.81073379516602</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>24.27983093261719</v>
+        <v>24.27982902526855</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>24.92342376708984</v>
+        <v>24.92342567443848</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>20.2984676361084</v>
+        <v>20.29846000671387</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>14.82090187072754</v>
+        <v>14.82089710235596</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>23.97350692749023</v>
+        <v>23.9735107421875</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>21.70154571533203</v>
+        <v>21.70154190063477</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>20.21572494506836</v>
+        <v>20.21572113037109</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>8.318363189697266</v>
+        <v>8.318367004394531</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>55.0076</v>
       </c>
       <c r="F54">
-        <v>18.38569831848145</v>
+        <v>18.38569450378418</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>15.17125701904297</v>
+        <v>15.17125034332275</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>68.2514</v>
       </c>
       <c r="F56">
-        <v>12.59491539001465</v>
+        <v>12.59491062164307</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>18.7385139465332</v>
+        <v>18.73851585388184</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>56.9723</v>
       </c>
       <c r="F60">
-        <v>13.16287231445312</v>
+        <v>13.16287422180176</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>35.39725875854492</v>
+        <v>35.39726257324219</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>47.4245</v>
       </c>
       <c r="F62">
-        <v>24.24844551086426</v>
+        <v>24.24844360351562</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>27.3646068572998</v>
+        <v>27.36461067199707</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>26.90457725524902</v>
+        <v>26.90457916259766</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>13.28468704223633</v>
+        <v>13.28468227386475</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.8596</v>
       </c>
       <c r="F70">
-        <v>23.72382164001465</v>
+        <v>23.72382736206055</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>21.74663734436035</v>
+        <v>21.74663352966309</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>19.3695182800293</v>
+        <v>19.36952209472656</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>20.614013671875</v>
+        <v>20.6140079498291</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>22.96185874938965</v>
+        <v>22.96185493469238</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>18.25900268554688</v>
+        <v>18.25901031494141</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>21.54483413696289</v>
+        <v>21.54483795166016</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>19.13997077941895</v>
+        <v>19.13996696472168</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>22.2596321105957</v>
+        <v>22.2596378326416</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>48.0677</v>
       </c>
       <c r="F85">
-        <v>25.6006908416748</v>
+        <v>25.60069274902344</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>12.46345233917236</v>
+        <v>12.46345520019531</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>26.41084098815918</v>
+        <v>26.41083717346191</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>17.77352142333984</v>
+        <v>17.77351951599121</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>24.62843132019043</v>
+        <v>24.62843704223633</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>25.74343681335449</v>
+        <v>25.74343109130859</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>34.3823</v>
       </c>
       <c r="F94">
-        <v>2.467004537582397</v>
+        <v>2.467003583908081</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>44.9896</v>
       </c>
       <c r="F95">
-        <v>13.37910175323486</v>
+        <v>13.3791036605835</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>53.4777</v>
       </c>
       <c r="F96">
-        <v>12.2490816116333</v>
+        <v>12.24907970428467</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>22.5543</v>
       </c>
       <c r="F97">
-        <v>29.75261878967285</v>
+        <v>29.75261306762695</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>19.71180152893066</v>
+        <v>19.71179389953613</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>14.24917697906494</v>
+        <v>14.24917507171631</v>
       </c>
     </row>
     <row r="100" spans="1:6">
